--- a/data/pca/factorExposure/factorExposure_2008-12-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-02.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01931371347661471</v>
+        <v>-0.01786522523680318</v>
       </c>
       <c r="C2">
-        <v>0.01221731214735997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.01484626532636224</v>
+      </c>
+      <c r="D2">
+        <v>-0.02086954485867408</v>
+      </c>
+      <c r="E2">
+        <v>-0.01077874472536934</v>
+      </c>
+      <c r="F2">
+        <v>0.005645826406709659</v>
+      </c>
+      <c r="G2">
+        <v>-0.02738838323466971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08174979537781912</v>
+        <v>-0.08524058466416602</v>
       </c>
       <c r="C4">
-        <v>0.08594974758232128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08836065799653257</v>
+      </c>
+      <c r="D4">
+        <v>0.01754877049915824</v>
+      </c>
+      <c r="E4">
+        <v>-0.03216947856458437</v>
+      </c>
+      <c r="F4">
+        <v>-0.09985680053447592</v>
+      </c>
+      <c r="G4">
+        <v>0.03955025293502415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.005320433976533308</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.0003736722503938283</v>
+      </c>
+      <c r="D5">
+        <v>0.001625632919534146</v>
+      </c>
+      <c r="E5">
+        <v>0.004572805277388902</v>
+      </c>
+      <c r="F5">
+        <v>0.002928686886744442</v>
+      </c>
+      <c r="G5">
+        <v>0.0009259961751177225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1673163328529305</v>
+        <v>-0.168904663801119</v>
       </c>
       <c r="C6">
-        <v>-0.01164347116313316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.003969527747655115</v>
+      </c>
+      <c r="D6">
+        <v>0.07001590043290916</v>
+      </c>
+      <c r="E6">
+        <v>0.07090692412447736</v>
+      </c>
+      <c r="F6">
+        <v>-0.02639878574098512</v>
+      </c>
+      <c r="G6">
+        <v>-0.1486654939393925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05180628498102185</v>
+        <v>-0.05396951648801823</v>
       </c>
       <c r="C7">
-        <v>0.05822253674910784</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.06017797393511583</v>
+      </c>
+      <c r="D7">
+        <v>-0.0005948881745223933</v>
+      </c>
+      <c r="E7">
+        <v>-0.09562573346209172</v>
+      </c>
+      <c r="F7">
+        <v>-0.080276999744919</v>
+      </c>
+      <c r="G7">
+        <v>0.02472586395899636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04985260209488877</v>
+        <v>-0.04808519320870423</v>
       </c>
       <c r="C8">
-        <v>0.06081543703564539</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.05833100958101664</v>
+      </c>
+      <c r="D8">
+        <v>-0.04764203876336282</v>
+      </c>
+      <c r="E8">
+        <v>-0.02852716942372362</v>
+      </c>
+      <c r="F8">
+        <v>0.01797794144657592</v>
+      </c>
+      <c r="G8">
+        <v>-0.0003585978475716967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05677431253669429</v>
+        <v>-0.06214218902121844</v>
       </c>
       <c r="C9">
-        <v>0.09412455236223814</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09408168247200302</v>
+      </c>
+      <c r="D9">
+        <v>0.02083657358723186</v>
+      </c>
+      <c r="E9">
+        <v>-0.03305434757988345</v>
+      </c>
+      <c r="F9">
+        <v>-0.1037164644764051</v>
+      </c>
+      <c r="G9">
+        <v>0.05657019761009859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1209474391600888</v>
+        <v>-0.1047177769637291</v>
       </c>
       <c r="C10">
-        <v>-0.1559630127125889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1386059604015242</v>
+      </c>
+      <c r="D10">
+        <v>-0.08223387017217539</v>
+      </c>
+      <c r="E10">
+        <v>-0.01953875119848676</v>
+      </c>
+      <c r="F10">
+        <v>0.04732708677999882</v>
+      </c>
+      <c r="G10">
+        <v>0.06545632768469163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.08048097561901681</v>
+        <v>-0.07747522117836607</v>
       </c>
       <c r="C11">
-        <v>0.1370893818378791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.1357069452106779</v>
+      </c>
+      <c r="D11">
+        <v>-0.0136541803070744</v>
+      </c>
+      <c r="E11">
+        <v>-0.03881543856405119</v>
+      </c>
+      <c r="F11">
+        <v>-0.07863547125258712</v>
+      </c>
+      <c r="G11">
+        <v>0.1014022217616431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08132666378266649</v>
+        <v>-0.07698007394514043</v>
       </c>
       <c r="C12">
-        <v>0.1610075895714</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.1592617162916683</v>
+      </c>
+      <c r="D12">
+        <v>-0.006474946582408208</v>
+      </c>
+      <c r="E12">
+        <v>-0.06026114941385827</v>
+      </c>
+      <c r="F12">
+        <v>-0.06824512065177168</v>
+      </c>
+      <c r="G12">
+        <v>0.09489434975135259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04209361552064351</v>
+        <v>-0.04434351807029985</v>
       </c>
       <c r="C13">
-        <v>0.07065602178406157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07516128710710801</v>
+      </c>
+      <c r="D13">
+        <v>-0.01961662809900044</v>
+      </c>
+      <c r="E13">
+        <v>-0.07329709898702892</v>
+      </c>
+      <c r="F13">
+        <v>-0.05723913317553111</v>
+      </c>
+      <c r="G13">
+        <v>0.03214958228283749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0184056710361347</v>
+        <v>-0.02093983141817134</v>
       </c>
       <c r="C14">
-        <v>0.0482266449968374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.0510666313392906</v>
+      </c>
+      <c r="D14">
+        <v>-0.0311728467283984</v>
+      </c>
+      <c r="E14">
+        <v>-0.03054224904542239</v>
+      </c>
+      <c r="F14">
+        <v>-0.06039630103395003</v>
+      </c>
+      <c r="G14">
+        <v>0.05441155847980234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03091103725148407</v>
+        <v>-0.03113340965600845</v>
       </c>
       <c r="C15">
-        <v>0.06487904261126611</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.06255348129195984</v>
+      </c>
+      <c r="D15">
+        <v>0.02707554985669164</v>
+      </c>
+      <c r="E15">
+        <v>-0.03940750970633221</v>
+      </c>
+      <c r="F15">
+        <v>-0.03304826784250382</v>
+      </c>
+      <c r="G15">
+        <v>0.01957735154053163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05928954592380951</v>
+        <v>-0.05684357672861186</v>
       </c>
       <c r="C16">
-        <v>0.1571351490877113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1563196246784011</v>
+      </c>
+      <c r="D16">
+        <v>-0.01047494801308641</v>
+      </c>
+      <c r="E16">
+        <v>-0.01970029068257133</v>
+      </c>
+      <c r="F16">
+        <v>-0.07273765137136586</v>
+      </c>
+      <c r="G16">
+        <v>0.1223120760807443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.008993287089424319</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.004515831061170076</v>
+      </c>
+      <c r="D17">
+        <v>0.004954173026534926</v>
+      </c>
+      <c r="E17">
+        <v>-0.004386675826602433</v>
+      </c>
+      <c r="F17">
+        <v>0.01721558148939282</v>
+      </c>
+      <c r="G17">
+        <v>0.002710745900619635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.04868109979237874</v>
+        <v>-0.0588495617839563</v>
       </c>
       <c r="C18">
-        <v>0.055536051926002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04923790089993269</v>
+      </c>
+      <c r="D18">
+        <v>0.03233893546561246</v>
+      </c>
+      <c r="E18">
+        <v>0.06091018063153696</v>
+      </c>
+      <c r="F18">
+        <v>0.04300705343602956</v>
+      </c>
+      <c r="G18">
+        <v>-0.1995587082168973</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06110770271512143</v>
+        <v>-0.05980854674074753</v>
       </c>
       <c r="C20">
-        <v>0.1092237005737947</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.1059738819534083</v>
+      </c>
+      <c r="D20">
+        <v>0.01149393411945148</v>
+      </c>
+      <c r="E20">
+        <v>-0.05448881156874735</v>
+      </c>
+      <c r="F20">
+        <v>-0.06371537589842002</v>
+      </c>
+      <c r="G20">
+        <v>0.05146062513851576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04486839000531508</v>
+        <v>-0.04680218821304483</v>
       </c>
       <c r="C21">
-        <v>0.07126618498621043</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.0670979154613205</v>
+      </c>
+      <c r="D21">
+        <v>-0.01049380644603901</v>
+      </c>
+      <c r="E21">
+        <v>-0.02725918622386739</v>
+      </c>
+      <c r="F21">
+        <v>-0.0675781871495348</v>
+      </c>
+      <c r="G21">
+        <v>0.08221494037754476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04440995212122094</v>
+        <v>-0.04453892155764913</v>
       </c>
       <c r="C22">
-        <v>0.03835476935716104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04252202476798584</v>
+      </c>
+      <c r="D22">
+        <v>-0.09273553975746768</v>
+      </c>
+      <c r="E22">
+        <v>0.1745257429606981</v>
+      </c>
+      <c r="F22">
+        <v>0.09203968938375763</v>
+      </c>
+      <c r="G22">
+        <v>0.02213780618053503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04442035134185248</v>
+        <v>-0.04454796632542625</v>
       </c>
       <c r="C23">
-        <v>0.03834786821651852</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04251609194283864</v>
+      </c>
+      <c r="D23">
+        <v>-0.0927819673959846</v>
+      </c>
+      <c r="E23">
+        <v>0.1745611127436931</v>
+      </c>
+      <c r="F23">
+        <v>0.09209784066938594</v>
+      </c>
+      <c r="G23">
+        <v>0.02214592289159197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06570306650572558</v>
+        <v>-0.06403034219103279</v>
       </c>
       <c r="C24">
-        <v>0.1401874627378292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.1365531933512705</v>
+      </c>
+      <c r="D24">
+        <v>-0.00690664199420111</v>
+      </c>
+      <c r="E24">
+        <v>-0.03882008884243951</v>
+      </c>
+      <c r="F24">
+        <v>-0.0729783771464976</v>
+      </c>
+      <c r="G24">
+        <v>0.06265800090306994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07496906674207626</v>
+        <v>-0.07192657281625596</v>
       </c>
       <c r="C25">
-        <v>0.1216209040596103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1199158209765775</v>
+      </c>
+      <c r="D25">
+        <v>-0.009736094058573962</v>
+      </c>
+      <c r="E25">
+        <v>-0.07066619298027181</v>
+      </c>
+      <c r="F25">
+        <v>-0.08168504712540341</v>
+      </c>
+      <c r="G25">
+        <v>0.08928549378532256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.06030264021001402</v>
+        <v>-0.06362933610027327</v>
       </c>
       <c r="C26">
-        <v>0.07228593747169453</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.0761000078662659</v>
+      </c>
+      <c r="D26">
+        <v>-0.03181655961030815</v>
+      </c>
+      <c r="E26">
+        <v>-0.07154536298098749</v>
+      </c>
+      <c r="F26">
+        <v>-0.05661725309705296</v>
+      </c>
+      <c r="G26">
+        <v>0.1245824433264001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1694788208930586</v>
+        <v>-0.1742572997046219</v>
       </c>
       <c r="C28">
-        <v>-0.2271693269882122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2299959307124778</v>
+      </c>
+      <c r="D28">
+        <v>-0.08559122473600368</v>
+      </c>
+      <c r="E28">
+        <v>-0.1205192601210427</v>
+      </c>
+      <c r="F28">
+        <v>-0.04663763668005427</v>
+      </c>
+      <c r="G28">
+        <v>0.09770174269759176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02631518551482116</v>
+        <v>-0.02747396274067234</v>
       </c>
       <c r="C29">
-        <v>0.05624773607186299</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.05656447684355521</v>
+      </c>
+      <c r="D29">
+        <v>-0.04893414287307285</v>
+      </c>
+      <c r="E29">
+        <v>-0.02445649756052503</v>
+      </c>
+      <c r="F29">
+        <v>-0.04672441643867718</v>
+      </c>
+      <c r="G29">
+        <v>0.04658817963216743</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.0279782819903514</v>
+        <v>-0.03192367752987065</v>
       </c>
       <c r="C30">
-        <v>0.06899399554052886</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07445287289992418</v>
+      </c>
+      <c r="D30">
+        <v>0.04681965735412875</v>
+      </c>
+      <c r="E30">
+        <v>-0.1097811301900689</v>
+      </c>
+      <c r="F30">
+        <v>-0.08866065685012048</v>
+      </c>
+      <c r="G30">
+        <v>0.02023625714796263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05585057229246544</v>
+        <v>-0.05445552476615485</v>
       </c>
       <c r="C31">
-        <v>0.03352965967581394</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.03616632460007582</v>
+      </c>
+      <c r="D31">
+        <v>-0.02254903007963089</v>
+      </c>
+      <c r="E31">
+        <v>0.0417293243402217</v>
+      </c>
+      <c r="F31">
+        <v>-0.03494538842587683</v>
+      </c>
+      <c r="G31">
+        <v>0.03713415106016001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04139815180343327</v>
+        <v>-0.04540502715691827</v>
       </c>
       <c r="C32">
-        <v>0.05185108513122695</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.04881759360323494</v>
+      </c>
+      <c r="D32">
+        <v>0.008102820127864572</v>
+      </c>
+      <c r="E32">
+        <v>-0.04383232757177884</v>
+      </c>
+      <c r="F32">
+        <v>-0.002096629836526043</v>
+      </c>
+      <c r="G32">
+        <v>0.03691242970417428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07840673691570804</v>
+        <v>-0.08218433507549336</v>
       </c>
       <c r="C33">
-        <v>0.1174754875818267</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1255493001227283</v>
+      </c>
+      <c r="D33">
+        <v>-0.01984102826985779</v>
+      </c>
+      <c r="E33">
+        <v>-0.03779807288322428</v>
+      </c>
+      <c r="F33">
+        <v>-0.048157525691409</v>
+      </c>
+      <c r="G33">
+        <v>0.0249500306754423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05225567060755874</v>
+        <v>-0.05136006923407126</v>
       </c>
       <c r="C34">
-        <v>0.1262745116776596</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.1251816742739139</v>
+      </c>
+      <c r="D34">
+        <v>0.01242390918401761</v>
+      </c>
+      <c r="E34">
+        <v>-0.01872920093349343</v>
+      </c>
+      <c r="F34">
+        <v>-0.05338968996306851</v>
+      </c>
+      <c r="G34">
+        <v>0.1484388113680331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.0263753734188554</v>
+        <v>-0.02875196708386896</v>
       </c>
       <c r="C35">
-        <v>0.01589894491721723</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.01917914068882426</v>
+      </c>
+      <c r="D35">
+        <v>-0.007895817559158642</v>
+      </c>
+      <c r="E35">
+        <v>-0.01827436380796675</v>
+      </c>
+      <c r="F35">
+        <v>-0.004468688933179471</v>
+      </c>
+      <c r="G35">
+        <v>0.04083920670224279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0261215772369236</v>
+        <v>-0.02859885645512852</v>
       </c>
       <c r="C36">
-        <v>0.05521533947730044</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.05317760476691102</v>
+      </c>
+      <c r="D36">
+        <v>0.02081777390553593</v>
+      </c>
+      <c r="E36">
+        <v>0.02095629655702234</v>
+      </c>
+      <c r="F36">
+        <v>-0.007570787424737113</v>
+      </c>
+      <c r="G36">
+        <v>0.1086320853371266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0.0005397947448116886</v>
+        <v>-0.005099173989111997</v>
       </c>
       <c r="C37">
-        <v>-0.0004351675104679375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.006460195033910348</v>
+      </c>
+      <c r="D37">
+        <v>-0.00800071661699067</v>
+      </c>
+      <c r="E37">
+        <v>-0.00723267019042248</v>
+      </c>
+      <c r="F37">
+        <v>-0.01280574707843935</v>
+      </c>
+      <c r="G37">
+        <v>-0.004892843186967412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08234096679189799</v>
+        <v>-0.07686405051292604</v>
       </c>
       <c r="C39">
-        <v>0.146726209426091</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1410163140067634</v>
+      </c>
+      <c r="D39">
+        <v>-0.06428407305439411</v>
+      </c>
+      <c r="E39">
+        <v>-0.05003389804611031</v>
+      </c>
+      <c r="F39">
+        <v>-0.087084325064004</v>
+      </c>
+      <c r="G39">
+        <v>0.1695405093847999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0547525653038805</v>
+        <v>-0.05616877446748869</v>
       </c>
       <c r="C40">
-        <v>0.07611629674425793</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.08199404409009811</v>
+      </c>
+      <c r="D40">
+        <v>-0.01297274410248376</v>
+      </c>
+      <c r="E40">
+        <v>-0.06661332286823797</v>
+      </c>
+      <c r="F40">
+        <v>0.01962513093758057</v>
+      </c>
+      <c r="G40">
+        <v>0.02346426557394015</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.0315442433040248</v>
+        <v>-0.03097158635877418</v>
       </c>
       <c r="C41">
-        <v>0.02403722987822405</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.02598398252443087</v>
+      </c>
+      <c r="D41">
+        <v>0.000984727974277215</v>
+      </c>
+      <c r="E41">
+        <v>-0.004795266484741872</v>
+      </c>
+      <c r="F41">
+        <v>0.01893044995753946</v>
+      </c>
+      <c r="G41">
+        <v>0.009706463549731053</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04550644585765989</v>
+        <v>-0.04313855880153511</v>
       </c>
       <c r="C43">
-        <v>0.0428982795655978</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.0403881865901405</v>
+      </c>
+      <c r="D43">
+        <v>-0.03874453301105739</v>
+      </c>
+      <c r="E43">
+        <v>0.02778226447819679</v>
+      </c>
+      <c r="F43">
+        <v>-0.004470378702250426</v>
+      </c>
+      <c r="G43">
+        <v>0.05146313414797139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0555953464498174</v>
+        <v>-0.05989118282538046</v>
       </c>
       <c r="C44">
-        <v>0.09919202585711963</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.1003030413986431</v>
+      </c>
+      <c r="D44">
+        <v>0.08791923511522394</v>
+      </c>
+      <c r="E44">
+        <v>-0.0818068305487519</v>
+      </c>
+      <c r="F44">
+        <v>-0.1039680176625535</v>
+      </c>
+      <c r="G44">
+        <v>0.1207004892757219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0009772948156437111</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.0006412901472754445</v>
+      </c>
+      <c r="D45">
+        <v>-0.0006787021785061126</v>
+      </c>
+      <c r="E45">
+        <v>0.0008939817362729799</v>
+      </c>
+      <c r="F45">
+        <v>-0.007170259114296127</v>
+      </c>
+      <c r="G45">
+        <v>-0.006402442628160974</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02943791434653392</v>
+        <v>-0.02997442087626452</v>
       </c>
       <c r="C46">
-        <v>0.04497354414389395</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.04321803962223164</v>
+      </c>
+      <c r="D46">
+        <v>-0.05864376631000725</v>
+      </c>
+      <c r="E46">
+        <v>-0.005984786173735219</v>
+      </c>
+      <c r="F46">
+        <v>-0.04738654864637908</v>
+      </c>
+      <c r="G46">
+        <v>0.06431444667497548</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05833941575305867</v>
+        <v>-0.05563961622278885</v>
       </c>
       <c r="C47">
-        <v>0.0494469801400366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.04769357424121374</v>
+      </c>
+      <c r="D47">
+        <v>-0.03906910069007165</v>
+      </c>
+      <c r="E47">
+        <v>0.09938327360760353</v>
+      </c>
+      <c r="F47">
+        <v>0.02246487557506982</v>
+      </c>
+      <c r="G47">
+        <v>-0.03546016022900513</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.0490504546265043</v>
+        <v>-0.05067793126807316</v>
       </c>
       <c r="C48">
-        <v>0.06673291384770469</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.06653356221439982</v>
+      </c>
+      <c r="D48">
+        <v>-0.007241502363329713</v>
+      </c>
+      <c r="E48">
+        <v>-0.03657587035378682</v>
+      </c>
+      <c r="F48">
+        <v>-0.08209449447570127</v>
+      </c>
+      <c r="G48">
+        <v>0.03092672137869059</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.180139354326616</v>
+        <v>-0.1882162442086363</v>
       </c>
       <c r="C49">
-        <v>-0.02832653626586214</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02412671772054184</v>
+      </c>
+      <c r="D49">
+        <v>0.06773254304685711</v>
+      </c>
+      <c r="E49">
+        <v>-0.1062187037557323</v>
+      </c>
+      <c r="F49">
+        <v>0.005279636299112668</v>
+      </c>
+      <c r="G49">
+        <v>-0.1365220617669697</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05496732541674117</v>
+        <v>-0.05433807278270936</v>
       </c>
       <c r="C50">
-        <v>0.03491522234506671</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.03771168622703275</v>
+      </c>
+      <c r="D50">
+        <v>-0.003551544770685877</v>
+      </c>
+      <c r="E50">
+        <v>0.03704481172294902</v>
+      </c>
+      <c r="F50">
+        <v>-0.04630797254895802</v>
+      </c>
+      <c r="G50">
+        <v>0.02866311144886059</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1402895269143818</v>
+        <v>-0.1361397851311139</v>
       </c>
       <c r="C52">
-        <v>0.03672322662069553</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.03376380068143692</v>
+      </c>
+      <c r="D52">
+        <v>0.05948868818899273</v>
+      </c>
+      <c r="E52">
+        <v>0.1456909276112495</v>
+      </c>
+      <c r="F52">
+        <v>-0.03659600167496689</v>
+      </c>
+      <c r="G52">
+        <v>0.05693883394372614</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1665176492322938</v>
+        <v>-0.1607061413074026</v>
       </c>
       <c r="C53">
-        <v>-0.00837308787465668</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.007372275469473994</v>
+      </c>
+      <c r="D53">
+        <v>0.0876262013350733</v>
+      </c>
+      <c r="E53">
+        <v>0.1923376758823555</v>
+      </c>
+      <c r="F53">
+        <v>-0.05019817340445492</v>
+      </c>
+      <c r="G53">
+        <v>-0.04190603409633818</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01436519911413187</v>
+        <v>-0.01532663092745671</v>
       </c>
       <c r="C54">
-        <v>0.04357561898508396</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.04354152680315017</v>
+      </c>
+      <c r="D54">
+        <v>-0.01507646966473014</v>
+      </c>
+      <c r="E54">
+        <v>-0.02694204163691386</v>
+      </c>
+      <c r="F54">
+        <v>-0.04786749688649155</v>
+      </c>
+      <c r="G54">
+        <v>0.07374864849682988</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.121717928763547</v>
+        <v>-0.120251349179917</v>
       </c>
       <c r="C55">
-        <v>0.01243883784681485</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01261408511852318</v>
+      </c>
+      <c r="D55">
+        <v>0.03321676539260292</v>
+      </c>
+      <c r="E55">
+        <v>0.1885428334699441</v>
+      </c>
+      <c r="F55">
+        <v>-0.07975455454805058</v>
+      </c>
+      <c r="G55">
+        <v>0.0687761631837519</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1807212956002739</v>
+        <v>-0.1760212133031691</v>
       </c>
       <c r="C56">
-        <v>-0.01302830756378578</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01477148562374737</v>
+      </c>
+      <c r="D56">
+        <v>0.09738351750282311</v>
+      </c>
+      <c r="E56">
+        <v>0.216771681226813</v>
+      </c>
+      <c r="F56">
+        <v>-0.02675817437933763</v>
+      </c>
+      <c r="G56">
+        <v>-0.04315149658530065</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0406864513283347</v>
+        <v>-0.04082016521882247</v>
       </c>
       <c r="C58">
-        <v>0.09830191003513049</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1086221913088867</v>
+      </c>
+      <c r="D58">
+        <v>-0.0421924065231587</v>
+      </c>
+      <c r="E58">
+        <v>-0.02349792198309722</v>
+      </c>
+      <c r="F58">
+        <v>-0.03051096347573832</v>
+      </c>
+      <c r="G58">
+        <v>0.04744798151057512</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1792444276194953</v>
+        <v>-0.1858723169662242</v>
       </c>
       <c r="C59">
-        <v>-0.166957358949793</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1732585171038863</v>
+      </c>
+      <c r="D59">
+        <v>-0.1059866601723431</v>
+      </c>
+      <c r="E59">
+        <v>-0.05608811125879471</v>
+      </c>
+      <c r="F59">
+        <v>0.01288650973309343</v>
+      </c>
+      <c r="G59">
+        <v>0.07877493807643628</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2065958052552976</v>
+        <v>-0.2051050079651466</v>
       </c>
       <c r="C60">
-        <v>0.009035016491875042</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.01193330123789644</v>
+      </c>
+      <c r="D60">
+        <v>0.07172182704017525</v>
+      </c>
+      <c r="E60">
+        <v>0.009379831370709817</v>
+      </c>
+      <c r="F60">
+        <v>0.07252733074898869</v>
+      </c>
+      <c r="G60">
+        <v>-0.2054584061707171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.05899043727373021</v>
+        <v>-0.05784703181967389</v>
       </c>
       <c r="C61">
-        <v>0.1295511533730128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.1256158836914998</v>
+      </c>
+      <c r="D61">
+        <v>-0.0329339000780234</v>
+      </c>
+      <c r="E61">
+        <v>-0.0717145400504109</v>
+      </c>
+      <c r="F61">
+        <v>-0.05231117938611694</v>
+      </c>
+      <c r="G61">
+        <v>0.1119584611479152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1702419721315665</v>
+        <v>-0.1665945232888151</v>
       </c>
       <c r="C62">
-        <v>-0.006520272682360892</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.007928656827560972</v>
+      </c>
+      <c r="D62">
+        <v>0.06958576600946884</v>
+      </c>
+      <c r="E62">
+        <v>0.195853280877826</v>
+      </c>
+      <c r="F62">
+        <v>-0.01861471144910971</v>
+      </c>
+      <c r="G62">
+        <v>0.01192591318035991</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04295395427336434</v>
+        <v>-0.04535176159622142</v>
       </c>
       <c r="C63">
-        <v>0.07664016461637765</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.08050299265983045</v>
+      </c>
+      <c r="D63">
+        <v>-0.01904773981857005</v>
+      </c>
+      <c r="E63">
+        <v>-0.02846069026445522</v>
+      </c>
+      <c r="F63">
+        <v>-0.01384128654834826</v>
+      </c>
+      <c r="G63">
+        <v>0.1020839505911163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1144921641149127</v>
+        <v>-0.1123470338845325</v>
       </c>
       <c r="C64">
-        <v>0.06182217839188615</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.06290877771071722</v>
+      </c>
+      <c r="D64">
+        <v>0.05642886294532617</v>
+      </c>
+      <c r="E64">
+        <v>0.01199406955741169</v>
+      </c>
+      <c r="F64">
+        <v>-0.004130569651700663</v>
+      </c>
+      <c r="G64">
+        <v>-0.02209722815590692</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.154857514747621</v>
+        <v>-0.158392154924624</v>
       </c>
       <c r="C65">
-        <v>-0.05543621527683051</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04404094944159798</v>
+      </c>
+      <c r="D65">
+        <v>0.02318113681940003</v>
+      </c>
+      <c r="E65">
+        <v>0.04971816624994051</v>
+      </c>
+      <c r="F65">
+        <v>-0.04745924302977933</v>
+      </c>
+      <c r="G65">
+        <v>-0.1484279092832317</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.09838917143040593</v>
+        <v>-0.09380251565430313</v>
       </c>
       <c r="C66">
-        <v>0.1269901508041097</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1250683261099874</v>
+      </c>
+      <c r="D66">
+        <v>-0.03634975932653282</v>
+      </c>
+      <c r="E66">
+        <v>-0.05802919096001874</v>
+      </c>
+      <c r="F66">
+        <v>-0.06233410145029637</v>
+      </c>
+      <c r="G66">
+        <v>0.1530754924565309</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05083964701115734</v>
+        <v>-0.04410629611214856</v>
       </c>
       <c r="C67">
-        <v>0.0836239717575995</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07648719230189605</v>
+      </c>
+      <c r="D67">
+        <v>-0.03942552686494456</v>
+      </c>
+      <c r="E67">
+        <v>0.07187151319131391</v>
+      </c>
+      <c r="F67">
+        <v>0.04224738152900873</v>
+      </c>
+      <c r="G67">
+        <v>0.01870648729360847</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1469852722594648</v>
+        <v>-0.1469971742710464</v>
       </c>
       <c r="C68">
-        <v>-0.2609535665648798</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.2544201896361241</v>
+      </c>
+      <c r="D68">
+        <v>-0.06375870662734538</v>
+      </c>
+      <c r="E68">
+        <v>-0.1244560842813739</v>
+      </c>
+      <c r="F68">
+        <v>-0.09121366882337784</v>
+      </c>
+      <c r="G68">
+        <v>0.02946174850847265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03832983291898364</v>
+        <v>-0.03612929582582703</v>
       </c>
       <c r="C69">
-        <v>0.0249665112184185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.02803950186924756</v>
+      </c>
+      <c r="D69">
+        <v>0.007077946102292241</v>
+      </c>
+      <c r="E69">
+        <v>0.06466562453961934</v>
+      </c>
+      <c r="F69">
+        <v>0.03169656076964813</v>
+      </c>
+      <c r="G69">
+        <v>0.02700731211392808</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07758365640192577</v>
+        <v>-0.07606351461341229</v>
       </c>
       <c r="C70">
-        <v>0.1066751843978243</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.1085018093846023</v>
+      </c>
+      <c r="D70">
+        <v>-0.05541768425815539</v>
+      </c>
+      <c r="E70">
+        <v>-0.1012993049253542</v>
+      </c>
+      <c r="F70">
+        <v>0.006972916005175129</v>
+      </c>
+      <c r="G70">
+        <v>-0.02999115025612623</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1681453300065885</v>
+        <v>-0.1703574448106349</v>
       </c>
       <c r="C71">
-        <v>-0.2610330911564469</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.2582677748243048</v>
+      </c>
+      <c r="D71">
+        <v>-0.07583889787856868</v>
+      </c>
+      <c r="E71">
+        <v>-0.1379199281745454</v>
+      </c>
+      <c r="F71">
+        <v>-0.07952158743556116</v>
+      </c>
+      <c r="G71">
+        <v>0.008838696318991405</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1426856359534707</v>
+        <v>-0.1480503735551218</v>
       </c>
       <c r="C72">
-        <v>0.01184198320117003</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.01036700383760506</v>
+      </c>
+      <c r="D72">
+        <v>0.01068571050311188</v>
+      </c>
+      <c r="E72">
+        <v>0.119925019501727</v>
+      </c>
+      <c r="F72">
+        <v>-0.00838824685894656</v>
+      </c>
+      <c r="G72">
+        <v>0.03709856317187096</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1843603310036481</v>
+        <v>-0.1950531680718533</v>
       </c>
       <c r="C73">
-        <v>0.02492407322894203</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.02771383413044733</v>
+      </c>
+      <c r="D73">
+        <v>0.06472922020728186</v>
+      </c>
+      <c r="E73">
+        <v>0.03177832525486121</v>
+      </c>
+      <c r="F73">
+        <v>0.04725317343002464</v>
+      </c>
+      <c r="G73">
+        <v>-0.0499630846259715</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07966041537647377</v>
+        <v>-0.08035431194360736</v>
       </c>
       <c r="C74">
-        <v>0.006428149117118513</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.0121674915897618</v>
+      </c>
+      <c r="D74">
+        <v>0.08485499092987477</v>
+      </c>
+      <c r="E74">
+        <v>0.09552840587624375</v>
+      </c>
+      <c r="F74">
+        <v>-0.008514287897692296</v>
+      </c>
+      <c r="G74">
+        <v>-0.01025763090899114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1206961196015812</v>
+        <v>-0.1134288959517648</v>
       </c>
       <c r="C75">
-        <v>0.02882181883729695</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02929390542001167</v>
+      </c>
+      <c r="D75">
+        <v>0.02839610365874326</v>
+      </c>
+      <c r="E75">
+        <v>0.189966922751966</v>
+      </c>
+      <c r="F75">
+        <v>-0.008732792788347134</v>
+      </c>
+      <c r="G75">
+        <v>-0.006249899653393053</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08123437344316688</v>
+        <v>-0.0886284545509356</v>
       </c>
       <c r="C77">
-        <v>0.1165285632558187</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1234984531457444</v>
+      </c>
+      <c r="D77">
+        <v>0.006233195913531722</v>
+      </c>
+      <c r="E77">
+        <v>-0.1018826042418265</v>
+      </c>
+      <c r="F77">
+        <v>-0.1357853114422196</v>
+      </c>
+      <c r="G77">
+        <v>-0.1557599134147378</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.07349521566103973</v>
+        <v>-0.08020004584936155</v>
       </c>
       <c r="C78">
-        <v>0.1353834488504973</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1393175198069382</v>
+      </c>
+      <c r="D78">
+        <v>-0.0758750514496515</v>
+      </c>
+      <c r="E78">
+        <v>0.009786926201805964</v>
+      </c>
+      <c r="F78">
+        <v>-0.09818920359887313</v>
+      </c>
+      <c r="G78">
+        <v>-0.241283357663282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1703092863092013</v>
+        <v>-0.1656929658221583</v>
       </c>
       <c r="C79">
-        <v>0.02393687661121788</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.02253052960249294</v>
+      </c>
+      <c r="D79">
+        <v>0.01967731900253719</v>
+      </c>
+      <c r="E79">
+        <v>0.1597939353350927</v>
+      </c>
+      <c r="F79">
+        <v>-0.02638652572969392</v>
+      </c>
+      <c r="G79">
+        <v>-0.006780934733523231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07826954375377619</v>
+        <v>-0.07405591003902309</v>
       </c>
       <c r="C80">
-        <v>0.08128274302419022</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.07705483087370323</v>
+      </c>
+      <c r="D80">
+        <v>-0.03968888018561478</v>
+      </c>
+      <c r="E80">
+        <v>-0.08360886350702867</v>
+      </c>
+      <c r="F80">
+        <v>0.04394899602919287</v>
+      </c>
+      <c r="G80">
+        <v>0.1207380483210239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1093351604419995</v>
+        <v>-0.1032802861195368</v>
       </c>
       <c r="C81">
-        <v>-0.009572320464159442</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.008757670881135746</v>
+      </c>
+      <c r="D81">
+        <v>0.01145557730361774</v>
+      </c>
+      <c r="E81">
+        <v>0.1816715715617863</v>
+      </c>
+      <c r="F81">
+        <v>0.04805379961351985</v>
+      </c>
+      <c r="G81">
+        <v>6.118619988830926e-07</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1630784214958612</v>
+        <v>-0.1589912858656865</v>
       </c>
       <c r="C82">
-        <v>-0.01610590138136045</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.01366911746484979</v>
+      </c>
+      <c r="D82">
+        <v>0.1201941439262419</v>
+      </c>
+      <c r="E82">
+        <v>0.1777773108407319</v>
+      </c>
+      <c r="F82">
+        <v>-0.01504823414342347</v>
+      </c>
+      <c r="G82">
+        <v>-0.0320578095017867</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05364247715620341</v>
+        <v>-0.05066944971492648</v>
       </c>
       <c r="C83">
-        <v>0.06211174714635381</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.05599120540955987</v>
+      </c>
+      <c r="D83">
+        <v>-0.01821170872389402</v>
+      </c>
+      <c r="E83">
+        <v>-0.01579177782740336</v>
+      </c>
+      <c r="F83">
+        <v>0.01412417204572707</v>
+      </c>
+      <c r="G83">
+        <v>0.05914736992063405</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.04825623984502028</v>
+        <v>-0.04741000484924956</v>
       </c>
       <c r="C84">
-        <v>0.07494398700560088</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.07321331180568569</v>
+      </c>
+      <c r="D84">
+        <v>-0.01526984626707945</v>
+      </c>
+      <c r="E84">
+        <v>0.01300294873483534</v>
+      </c>
+      <c r="F84">
+        <v>-0.03713605679533196</v>
+      </c>
+      <c r="G84">
+        <v>0.06239680059582272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1390278014433897</v>
+        <v>-0.1342680351372053</v>
       </c>
       <c r="C85">
-        <v>0.007116579764891625</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.006426418448352925</v>
+      </c>
+      <c r="D85">
+        <v>0.05619237347075877</v>
+      </c>
+      <c r="E85">
+        <v>0.1577175871557897</v>
+      </c>
+      <c r="F85">
+        <v>-0.0613375101444193</v>
+      </c>
+      <c r="G85">
+        <v>0.01548324000681651</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08446051903527749</v>
+        <v>-0.08469738645998079</v>
       </c>
       <c r="C86">
-        <v>0.1502492663483774</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.1569010123944339</v>
+      </c>
+      <c r="D86">
+        <v>-0.8441753921258631</v>
+      </c>
+      <c r="E86">
+        <v>0.1035708854578354</v>
+      </c>
+      <c r="F86">
+        <v>0.2682471256468412</v>
+      </c>
+      <c r="G86">
+        <v>-0.09395505192295014</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08446664369300733</v>
+        <v>-0.08027888007744409</v>
       </c>
       <c r="C87">
-        <v>0.09623859950732144</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.09253402317835789</v>
+      </c>
+      <c r="D87">
+        <v>0.06899884089206762</v>
+      </c>
+      <c r="E87">
+        <v>-0.2796166904462039</v>
+      </c>
+      <c r="F87">
+        <v>-0.0610231687485342</v>
+      </c>
+      <c r="G87">
+        <v>0.03072223291913721</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06002009574389497</v>
+        <v>-0.05937071071810048</v>
       </c>
       <c r="C88">
-        <v>0.06607665515326042</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06586505463171345</v>
+      </c>
+      <c r="D88">
+        <v>0.0186469386796517</v>
+      </c>
+      <c r="E88">
+        <v>0.04299288567886758</v>
+      </c>
+      <c r="F88">
+        <v>-0.005594042957929346</v>
+      </c>
+      <c r="G88">
+        <v>-0.0131661367991943</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1530221159793791</v>
+        <v>-0.1515550568668683</v>
       </c>
       <c r="C89">
-        <v>-0.2037250619663096</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.2091990195607519</v>
+      </c>
+      <c r="D89">
+        <v>-0.03177217258784289</v>
+      </c>
+      <c r="E89">
+        <v>-0.09359285301198218</v>
+      </c>
+      <c r="F89">
+        <v>-0.03912924272886694</v>
+      </c>
+      <c r="G89">
+        <v>0.02088463326203672</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1873391130067552</v>
+        <v>-0.1885483032353034</v>
       </c>
       <c r="C90">
-        <v>-0.2474470831164365</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.2463380531351294</v>
+      </c>
+      <c r="D90">
+        <v>-0.08534750683590407</v>
+      </c>
+      <c r="E90">
+        <v>-0.1756849020190734</v>
+      </c>
+      <c r="F90">
+        <v>-0.04170330312078442</v>
+      </c>
+      <c r="G90">
+        <v>-0.05319909278209053</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1235454773066784</v>
+        <v>-0.1177030098368411</v>
       </c>
       <c r="C91">
-        <v>-0.01234621191639096</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.01229275869355445</v>
+      </c>
+      <c r="D91">
+        <v>0.00816957812733944</v>
+      </c>
+      <c r="E91">
+        <v>0.2037595617610841</v>
+      </c>
+      <c r="F91">
+        <v>0.05230698387888755</v>
+      </c>
+      <c r="G91">
+        <v>0.031297226375781</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1746641335897356</v>
+        <v>-0.1751899590227994</v>
       </c>
       <c r="C92">
-        <v>-0.2633817298835426</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.2747379602192693</v>
+      </c>
+      <c r="D92">
+        <v>-0.117993258720808</v>
+      </c>
+      <c r="E92">
+        <v>-0.1370284435091735</v>
+      </c>
+      <c r="F92">
+        <v>-0.09804225901513508</v>
+      </c>
+      <c r="G92">
+        <v>0.1053698328643814</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1825176017790314</v>
+        <v>-0.1885450281502605</v>
       </c>
       <c r="C93">
-        <v>-0.2305510487482625</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.2315165508719278</v>
+      </c>
+      <c r="D93">
+        <v>-0.06926903958398903</v>
+      </c>
+      <c r="E93">
+        <v>-0.06123321984829139</v>
+      </c>
+      <c r="F93">
+        <v>-0.07023558488526087</v>
+      </c>
+      <c r="G93">
+        <v>0.004685845388760372</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1191708122456233</v>
+        <v>-0.1140564476573002</v>
       </c>
       <c r="C94">
-        <v>0.03563686594434015</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03526463875652978</v>
+      </c>
+      <c r="D94">
+        <v>0.01884787394793955</v>
+      </c>
+      <c r="E94">
+        <v>0.1665210959622358</v>
+      </c>
+      <c r="F94">
+        <v>-0.01660709613845348</v>
+      </c>
+      <c r="G94">
+        <v>0.0322839860434669</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.122033183806603</v>
+        <v>-0.1208847842498905</v>
       </c>
       <c r="C95">
-        <v>0.1051462120408283</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1158954270208117</v>
+      </c>
+      <c r="D95">
+        <v>-0.05263679103965505</v>
+      </c>
+      <c r="E95">
+        <v>-0.05294286087180821</v>
+      </c>
+      <c r="F95">
+        <v>-0.0626463041876073</v>
+      </c>
+      <c r="G95">
+        <v>0.08663118879236278</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1253381191710917</v>
+        <v>-0.1221010627388919</v>
       </c>
       <c r="C96">
-        <v>0.1092413912801102</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.1127167015682922</v>
+      </c>
+      <c r="D96">
+        <v>0.03133912355801211</v>
+      </c>
+      <c r="E96">
+        <v>-0.0186848618180796</v>
+      </c>
+      <c r="F96">
+        <v>-0.05126132056663371</v>
+      </c>
+      <c r="G96">
+        <v>-0.02221483263312363</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.197725440561819</v>
+        <v>-0.2030730822534999</v>
       </c>
       <c r="C97">
-        <v>0.03177619306750181</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.02372336534868708</v>
+      </c>
+      <c r="D97">
+        <v>0.2479018674108249</v>
+      </c>
+      <c r="E97">
+        <v>-0.1603851391569932</v>
+      </c>
+      <c r="F97">
+        <v>0.784740200617573</v>
+      </c>
+      <c r="G97">
+        <v>0.3436382268328789</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1982163283011596</v>
+        <v>-0.2052315992109248</v>
       </c>
       <c r="C98">
-        <v>0.01093086263874467</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.01346797298128006</v>
+      </c>
+      <c r="D98">
+        <v>0.05544492382267023</v>
+      </c>
+      <c r="E98">
+        <v>-0.112570828987208</v>
+      </c>
+      <c r="F98">
+        <v>0.1318781394491278</v>
+      </c>
+      <c r="G98">
+        <v>-0.3174185722392491</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05094457417517281</v>
+        <v>-0.05084921582452831</v>
       </c>
       <c r="C99">
-        <v>0.05894895270275977</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.05823965206797453</v>
+      </c>
+      <c r="D99">
+        <v>-0.0008322190000530075</v>
+      </c>
+      <c r="E99">
+        <v>-0.03733412321403673</v>
+      </c>
+      <c r="F99">
+        <v>-0.03824131496566546</v>
+      </c>
+      <c r="G99">
+        <v>0.01132984777882562</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1150852472681802</v>
+        <v>-0.1099420577260983</v>
       </c>
       <c r="C100">
-        <v>0.2741003370028426</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.2637387160977552</v>
+      </c>
+      <c r="D100">
+        <v>0.07649840298116684</v>
+      </c>
+      <c r="E100">
+        <v>-0.3293236750143919</v>
+      </c>
+      <c r="F100">
+        <v>0.1594521105381406</v>
+      </c>
+      <c r="G100">
+        <v>-0.4724381250155436</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02633601453741952</v>
+        <v>-0.02746538036513342</v>
       </c>
       <c r="C101">
-        <v>0.05554603814611773</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.05594111020305195</v>
+      </c>
+      <c r="D101">
+        <v>-0.04838322115060587</v>
+      </c>
+      <c r="E101">
+        <v>-0.0216347703083321</v>
+      </c>
+      <c r="F101">
+        <v>-0.04478294119327684</v>
+      </c>
+      <c r="G101">
+        <v>0.04213205592958795</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
